--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Enho-Gpr19.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Enho-Gpr19.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,9 +79,15 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Enho</t>
   </si>
   <si>
@@ -89,12 +95,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.06490366666666667</v>
+        <v>0.01947433333333333</v>
       </c>
       <c r="H2">
-        <v>0.194711</v>
+        <v>0.058423</v>
       </c>
       <c r="I2">
-        <v>0.06136164738679384</v>
+        <v>0.02580149678094055</v>
       </c>
       <c r="J2">
-        <v>0.08930259394015</v>
+        <v>0.03422115147500115</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.8390596666666665</v>
+        <v>0.7767816666666666</v>
       </c>
       <c r="N2">
-        <v>2.517179</v>
+        <v>2.330345</v>
       </c>
       <c r="O2">
-        <v>0.1167136235197069</v>
+        <v>0.1256536933966735</v>
       </c>
       <c r="P2">
-        <v>0.1350750968425476</v>
+        <v>0.1348571322090576</v>
       </c>
       <c r="Q2">
-        <v>0.05445804891877777</v>
+        <v>0.01512730510388889</v>
       </c>
       <c r="R2">
-        <v>0.4901224402689999</v>
+        <v>0.136145745935</v>
       </c>
       <c r="S2">
-        <v>0.007161740211651262</v>
+        <v>0.003242053365687564</v>
       </c>
       <c r="T2">
-        <v>0.01206255652475647</v>
+        <v>0.004614966348810416</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,13 +587,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -602,16 +602,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.06490366666666667</v>
+        <v>0.01947433333333333</v>
       </c>
       <c r="H3">
-        <v>0.194711</v>
+        <v>0.058423</v>
       </c>
       <c r="I3">
-        <v>0.06136164738679384</v>
+        <v>0.02580149678094055</v>
       </c>
       <c r="J3">
-        <v>0.08930259394015</v>
+        <v>0.03422115147500115</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,25 +623,25 @@
         <v>2.108604</v>
       </c>
       <c r="N3">
-        <v>6.325811999999999</v>
+        <v>6.325812</v>
       </c>
       <c r="O3">
-        <v>0.2933078816502299</v>
+        <v>0.3410918304083723</v>
       </c>
       <c r="P3">
-        <v>0.3394512938919918</v>
+        <v>0.366074922474416</v>
       </c>
       <c r="Q3">
-        <v>0.136856131148</v>
+        <v>0.041063657164</v>
       </c>
       <c r="R3">
-        <v>1.231705180332</v>
+        <v>0.369572914476</v>
       </c>
       <c r="S3">
-        <v>0.01799785480958887</v>
+        <v>0.008800679764286737</v>
       </c>
       <c r="T3">
-        <v>0.03031388106089506</v>
+        <v>0.01252750537319629</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -664,16 +664,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.06490366666666667</v>
+        <v>0.01947433333333333</v>
       </c>
       <c r="H4">
-        <v>0.194711</v>
+        <v>0.058423</v>
       </c>
       <c r="I4">
-        <v>0.06136164738679384</v>
+        <v>0.02580149678094055</v>
       </c>
       <c r="J4">
-        <v>0.08930259394015</v>
+        <v>0.03422115147500115</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,28 +682,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.5503990000000001</v>
+        <v>0.8984800000000001</v>
       </c>
       <c r="N4">
-        <v>1.651197</v>
+        <v>2.69544</v>
       </c>
       <c r="O4">
-        <v>0.07656077895726507</v>
+        <v>0.1453398493910257</v>
       </c>
       <c r="P4">
-        <v>0.08860537716273822</v>
+        <v>0.1559851903651958</v>
       </c>
       <c r="Q4">
-        <v>0.03572291322966667</v>
+        <v>0.01749729901333334</v>
       </c>
       <c r="R4">
-        <v>0.3215062190670001</v>
+        <v>0.15747569112</v>
       </c>
       <c r="S4">
-        <v>0.004697895522033965</v>
+        <v>0.003749985656204934</v>
       </c>
       <c r="T4">
-        <v>0.007912690017677852</v>
+        <v>0.005337992827344254</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -726,16 +726,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.06490366666666667</v>
+        <v>0.01947433333333333</v>
       </c>
       <c r="H5">
-        <v>0.194711</v>
+        <v>0.058423</v>
       </c>
       <c r="I5">
-        <v>0.06136164738679384</v>
+        <v>0.02580149678094055</v>
       </c>
       <c r="J5">
-        <v>0.08930259394015</v>
+        <v>0.03422115147500115</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.9317355</v>
+        <v>1.265672</v>
       </c>
       <c r="N5">
-        <v>5.863471000000001</v>
+        <v>2.531344</v>
       </c>
       <c r="O5">
-        <v>0.4078058891398185</v>
+        <v>0.2047375321191771</v>
       </c>
       <c r="P5">
-        <v>0.3146414749044347</v>
+        <v>0.1464889501230953</v>
       </c>
       <c r="Q5">
-        <v>0.1902803836468333</v>
+        <v>0.02464811841866667</v>
       </c>
       <c r="R5">
-        <v>1.141682301881</v>
+        <v>0.147888710512</v>
       </c>
       <c r="S5">
-        <v>0.02502364117165548</v>
+        <v>0.005282534775910661</v>
       </c>
       <c r="T5">
-        <v>0.02809829987012063</v>
+        <v>0.005013020551576335</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,13 +773,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -788,46 +788,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.06490366666666667</v>
+        <v>0.01947433333333333</v>
       </c>
       <c r="H6">
-        <v>0.194711</v>
+        <v>0.058423</v>
       </c>
       <c r="I6">
-        <v>0.06136164738679384</v>
+        <v>0.02580149678094055</v>
       </c>
       <c r="J6">
-        <v>0.08930259394015</v>
+        <v>0.03422115147500115</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.7592483333333334</v>
+        <v>1.132387</v>
       </c>
       <c r="N6">
-        <v>2.277745</v>
+        <v>3.397161</v>
       </c>
       <c r="O6">
-        <v>0.1056118267329796</v>
+        <v>0.1831770946847514</v>
       </c>
       <c r="P6">
-        <v>0.1222267571982878</v>
+        <v>0.1965938048282354</v>
       </c>
       <c r="Q6">
-        <v>0.04927800074388889</v>
+        <v>0.02205248190033333</v>
       </c>
       <c r="R6">
-        <v>0.4435020066950001</v>
+        <v>0.198472337103</v>
       </c>
       <c r="S6">
-        <v>0.006480515671864261</v>
+        <v>0.004726243218850654</v>
       </c>
       <c r="T6">
-        <v>0.0109151664667</v>
+        <v>0.006727666374073857</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,31 +835,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.99282</v>
+        <v>0.1323876666666667</v>
       </c>
       <c r="H7">
-        <v>1.98564</v>
+        <v>0.397163</v>
       </c>
       <c r="I7">
-        <v>0.9386383526132062</v>
+        <v>0.1754000969825016</v>
       </c>
       <c r="J7">
-        <v>0.9106974060598501</v>
+        <v>0.2326374062144341</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.8390596666666665</v>
+        <v>0.7767816666666666</v>
       </c>
       <c r="N7">
-        <v>2.517179</v>
+        <v>2.330345</v>
       </c>
       <c r="O7">
-        <v>0.1167136235197069</v>
+        <v>0.1256536933966735</v>
       </c>
       <c r="P7">
-        <v>0.1350750968425476</v>
+        <v>0.1348571322090576</v>
       </c>
       <c r="Q7">
-        <v>0.8330352182599999</v>
+        <v>0.1028363123594444</v>
       </c>
       <c r="R7">
-        <v>4.998211309559999</v>
+        <v>0.9255268112349999</v>
       </c>
       <c r="S7">
-        <v>0.1095518833080556</v>
+        <v>0.02203967000798606</v>
       </c>
       <c r="T7">
-        <v>0.1230125403177912</v>
+        <v>0.03137281344663217</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,31 +897,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.99282</v>
+        <v>0.1323876666666667</v>
       </c>
       <c r="H8">
-        <v>1.98564</v>
+        <v>0.397163</v>
       </c>
       <c r="I8">
-        <v>0.9386383526132062</v>
+        <v>0.1754000969825016</v>
       </c>
       <c r="J8">
-        <v>0.9106974060598501</v>
+        <v>0.2326374062144341</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,25 +933,25 @@
         <v>2.108604</v>
       </c>
       <c r="N8">
-        <v>6.325811999999999</v>
+        <v>6.325812</v>
       </c>
       <c r="O8">
-        <v>0.2933078816502299</v>
+        <v>0.3410918304083723</v>
       </c>
       <c r="P8">
-        <v>0.3394512938919918</v>
+        <v>0.366074922474416</v>
       </c>
       <c r="Q8">
-        <v>2.09346422328</v>
+        <v>0.279153163484</v>
       </c>
       <c r="R8">
-        <v>12.56078533968</v>
+        <v>2.512378471356</v>
       </c>
       <c r="S8">
-        <v>0.275310026840641</v>
+        <v>0.05982754013356749</v>
       </c>
       <c r="T8">
-        <v>0.3091374128310967</v>
+        <v>0.08516272044459818</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,31 +959,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.99282</v>
+        <v>0.1323876666666667</v>
       </c>
       <c r="H9">
-        <v>1.98564</v>
+        <v>0.397163</v>
       </c>
       <c r="I9">
-        <v>0.9386383526132062</v>
+        <v>0.1754000969825016</v>
       </c>
       <c r="J9">
-        <v>0.9106974060598501</v>
+        <v>0.2326374062144341</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,28 +992,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.5503990000000001</v>
+        <v>0.8984800000000001</v>
       </c>
       <c r="N9">
-        <v>1.651197</v>
+        <v>2.69544</v>
       </c>
       <c r="O9">
-        <v>0.07656077895726507</v>
+        <v>0.1453398493910257</v>
       </c>
       <c r="P9">
-        <v>0.08860537716273822</v>
+        <v>0.1559851903651958</v>
       </c>
       <c r="Q9">
-        <v>0.5464471351800001</v>
+        <v>0.1189476707466667</v>
       </c>
       <c r="R9">
-        <v>3.278682811080001</v>
+        <v>1.07052903672</v>
       </c>
       <c r="S9">
-        <v>0.0718628834352311</v>
+        <v>0.02549262367860808</v>
       </c>
       <c r="T9">
-        <v>0.08069268714506038</v>
+        <v>0.03628799009442388</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,31 +1021,31 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.99282</v>
+        <v>0.1323876666666667</v>
       </c>
       <c r="H10">
-        <v>1.98564</v>
+        <v>0.397163</v>
       </c>
       <c r="I10">
-        <v>0.9386383526132062</v>
+        <v>0.1754000969825016</v>
       </c>
       <c r="J10">
-        <v>0.9106974060598501</v>
+        <v>0.2326374062144341</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.9317355</v>
+        <v>1.265672</v>
       </c>
       <c r="N10">
-        <v>5.863471000000001</v>
+        <v>2.531344</v>
       </c>
       <c r="O10">
-        <v>0.4078058891398185</v>
+        <v>0.2047375321191771</v>
       </c>
       <c r="P10">
-        <v>0.3146414749044347</v>
+        <v>0.1464889501230953</v>
       </c>
       <c r="Q10">
-        <v>2.91068563911</v>
+        <v>0.1675593628453333</v>
       </c>
       <c r="R10">
-        <v>11.64274255644</v>
+        <v>1.005356177072</v>
       </c>
       <c r="S10">
-        <v>0.382782247968163</v>
+        <v>0.03591098298966171</v>
       </c>
       <c r="T10">
-        <v>0.286543175034314</v>
+        <v>0.03407880939571251</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,681 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.1323876666666667</v>
+      </c>
+      <c r="H11">
+        <v>0.397163</v>
+      </c>
+      <c r="I11">
+        <v>0.1754000969825016</v>
+      </c>
+      <c r="J11">
+        <v>0.2326374062144341</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1.132387</v>
+      </c>
+      <c r="N11">
+        <v>3.397161</v>
+      </c>
+      <c r="O11">
+        <v>0.1831770946847514</v>
+      </c>
+      <c r="P11">
+        <v>0.1965938048282354</v>
+      </c>
+      <c r="Q11">
+        <v>0.1499140726936667</v>
+      </c>
+      <c r="R11">
+        <v>1.349226654243</v>
+      </c>
+      <c r="S11">
+        <v>0.03212928017267827</v>
+      </c>
+      <c r="T11">
+        <v>0.04573507283306737</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.557107</v>
+      </c>
+      <c r="H12">
+        <v>1.114214</v>
+      </c>
+      <c r="I12">
+        <v>0.7381097068178345</v>
+      </c>
+      <c r="J12">
+        <v>0.652648547140115</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.7767816666666666</v>
+      </c>
+      <c r="N12">
+        <v>2.330345</v>
+      </c>
+      <c r="O12">
+        <v>0.1256536933966735</v>
+      </c>
+      <c r="P12">
+        <v>0.1348571322090576</v>
+      </c>
+      <c r="Q12">
+        <v>0.4327505039716666</v>
+      </c>
+      <c r="R12">
+        <v>2.59650302383</v>
+      </c>
+      <c r="S12">
+        <v>0.09274621079359677</v>
+      </c>
+      <c r="T12">
+        <v>0.08801431140772382</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.557107</v>
+      </c>
+      <c r="H13">
+        <v>1.114214</v>
+      </c>
+      <c r="I13">
+        <v>0.7381097068178345</v>
+      </c>
+      <c r="J13">
+        <v>0.652648547140115</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>2.108604</v>
+      </c>
+      <c r="N13">
+        <v>6.325812</v>
+      </c>
+      <c r="O13">
+        <v>0.3410918304083723</v>
+      </c>
+      <c r="P13">
+        <v>0.366074922474416</v>
+      </c>
+      <c r="Q13">
+        <v>1.174718048628</v>
+      </c>
+      <c r="R13">
+        <v>7.048308291768</v>
+      </c>
+      <c r="S13">
+        <v>0.2517631909406822</v>
+      </c>
+      <c r="T13">
+        <v>0.2389182662973578</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.557107</v>
+      </c>
+      <c r="H14">
+        <v>1.114214</v>
+      </c>
+      <c r="I14">
+        <v>0.7381097068178345</v>
+      </c>
+      <c r="J14">
+        <v>0.652648547140115</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.8984800000000001</v>
+      </c>
+      <c r="N14">
+        <v>2.69544</v>
+      </c>
+      <c r="O14">
+        <v>0.1453398493910257</v>
+      </c>
+      <c r="P14">
+        <v>0.1559851903651958</v>
+      </c>
+      <c r="Q14">
+        <v>0.5005494973600001</v>
+      </c>
+      <c r="R14">
+        <v>3.00329698416</v>
+      </c>
+      <c r="S14">
+        <v>0.1072767536229582</v>
+      </c>
+      <c r="T14">
+        <v>0.1018035078672193</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.557107</v>
+      </c>
+      <c r="H15">
+        <v>1.114214</v>
+      </c>
+      <c r="I15">
+        <v>0.7381097068178345</v>
+      </c>
+      <c r="J15">
+        <v>0.652648547140115</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1.265672</v>
+      </c>
+      <c r="N15">
+        <v>2.531344</v>
+      </c>
+      <c r="O15">
+        <v>0.2047375321191771</v>
+      </c>
+      <c r="P15">
+        <v>0.1464889501230953</v>
+      </c>
+      <c r="Q15">
+        <v>0.7051147309040001</v>
+      </c>
+      <c r="R15">
+        <v>2.820458923616</v>
+      </c>
+      <c r="S15">
+        <v>0.1511187598070928</v>
+      </c>
+      <c r="T15">
+        <v>0.09560580046991894</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.557107</v>
+      </c>
+      <c r="H16">
+        <v>1.114214</v>
+      </c>
+      <c r="I16">
+        <v>0.7381097068178345</v>
+      </c>
+      <c r="J16">
+        <v>0.652648547140115</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1.132387</v>
+      </c>
+      <c r="N16">
+        <v>3.397161</v>
+      </c>
+      <c r="O16">
+        <v>0.1831770946847514</v>
+      </c>
+      <c r="P16">
+        <v>0.1965938048282354</v>
+      </c>
+      <c r="Q16">
+        <v>0.630860724409</v>
+      </c>
+      <c r="R16">
+        <v>3.785164346454</v>
+      </c>
+      <c r="S16">
+        <v>0.1352047916535045</v>
+      </c>
+      <c r="T16">
+        <v>0.1283066610978952</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.04580633333333334</v>
+      </c>
+      <c r="H17">
+        <v>0.137419</v>
+      </c>
+      <c r="I17">
+        <v>0.06068869941872328</v>
+      </c>
+      <c r="J17">
+        <v>0.08049289517044972</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.7767816666666666</v>
+      </c>
+      <c r="N17">
+        <v>2.330345</v>
+      </c>
+      <c r="O17">
+        <v>0.1256536933966735</v>
+      </c>
+      <c r="P17">
+        <v>0.1348571322090576</v>
+      </c>
+      <c r="Q17">
+        <v>0.03558151995055556</v>
+      </c>
+      <c r="R17">
+        <v>0.320233679555</v>
+      </c>
+      <c r="S17">
+        <v>0.007625759229403134</v>
+      </c>
+      <c r="T17">
+        <v>0.01085504100589115</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
         <v>26</v>
       </c>
-      <c r="E11">
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.04580633333333334</v>
+      </c>
+      <c r="H18">
+        <v>0.137419</v>
+      </c>
+      <c r="I18">
+        <v>0.06068869941872328</v>
+      </c>
+      <c r="J18">
+        <v>0.08049289517044972</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>2.108604</v>
+      </c>
+      <c r="N18">
+        <v>6.325812</v>
+      </c>
+      <c r="O18">
+        <v>0.3410918304083723</v>
+      </c>
+      <c r="P18">
+        <v>0.366074922474416</v>
+      </c>
+      <c r="Q18">
+        <v>0.09658741769200002</v>
+      </c>
+      <c r="R18">
+        <v>0.869286759228</v>
+      </c>
+      <c r="S18">
+        <v>0.02070041956983584</v>
+      </c>
+      <c r="T18">
+        <v>0.02946643035926367</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.04580633333333334</v>
+      </c>
+      <c r="H19">
+        <v>0.137419</v>
+      </c>
+      <c r="I19">
+        <v>0.06068869941872328</v>
+      </c>
+      <c r="J19">
+        <v>0.08049289517044972</v>
+      </c>
+      <c r="K19">
         <v>2</v>
       </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0.99282</v>
-      </c>
-      <c r="H11">
-        <v>1.98564</v>
-      </c>
-      <c r="I11">
-        <v>0.9386383526132062</v>
-      </c>
-      <c r="J11">
-        <v>0.9106974060598501</v>
-      </c>
-      <c r="K11">
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.8984800000000001</v>
+      </c>
+      <c r="N19">
+        <v>2.69544</v>
+      </c>
+      <c r="O19">
+        <v>0.1453398493910257</v>
+      </c>
+      <c r="P19">
+        <v>0.1559851903651958</v>
+      </c>
+      <c r="Q19">
+        <v>0.04115607437333334</v>
+      </c>
+      <c r="R19">
+        <v>0.37040466936</v>
+      </c>
+      <c r="S19">
+        <v>0.008820486433254469</v>
+      </c>
+      <c r="T19">
+        <v>0.01255569957620834</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.04580633333333334</v>
+      </c>
+      <c r="H20">
+        <v>0.137419</v>
+      </c>
+      <c r="I20">
+        <v>0.06068869941872328</v>
+      </c>
+      <c r="J20">
+        <v>0.08049289517044972</v>
+      </c>
+      <c r="K20">
         <v>2</v>
       </c>
-      <c r="L11">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M11">
-        <v>0.7592483333333334</v>
-      </c>
-      <c r="N11">
-        <v>2.277745</v>
-      </c>
-      <c r="O11">
-        <v>0.1056118267329796</v>
-      </c>
-      <c r="P11">
-        <v>0.1222267571982878</v>
-      </c>
-      <c r="Q11">
-        <v>0.7537969303000001</v>
-      </c>
-      <c r="R11">
-        <v>4.522781581800001</v>
-      </c>
-      <c r="S11">
-        <v>0.09913131106111533</v>
-      </c>
-      <c r="T11">
-        <v>0.1113115907315878</v>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1.265672</v>
+      </c>
+      <c r="N20">
+        <v>2.531344</v>
+      </c>
+      <c r="O20">
+        <v>0.2047375321191771</v>
+      </c>
+      <c r="P20">
+        <v>0.1464889501230953</v>
+      </c>
+      <c r="Q20">
+        <v>0.05797579352266668</v>
+      </c>
+      <c r="R20">
+        <v>0.3478547611360001</v>
+      </c>
+      <c r="S20">
+        <v>0.01242525454651194</v>
+      </c>
+      <c r="T20">
+        <v>0.01179131970588755</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.04580633333333334</v>
+      </c>
+      <c r="H21">
+        <v>0.137419</v>
+      </c>
+      <c r="I21">
+        <v>0.06068869941872328</v>
+      </c>
+      <c r="J21">
+        <v>0.08049289517044972</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1.132387</v>
+      </c>
+      <c r="N21">
+        <v>3.397161</v>
+      </c>
+      <c r="O21">
+        <v>0.1831770946847514</v>
+      </c>
+      <c r="P21">
+        <v>0.1965938048282354</v>
+      </c>
+      <c r="Q21">
+        <v>0.05187049638433334</v>
+      </c>
+      <c r="R21">
+        <v>0.466834467459</v>
+      </c>
+      <c r="S21">
+        <v>0.01111677963971789</v>
+      </c>
+      <c r="T21">
+        <v>0.01582440452319901</v>
       </c>
     </row>
   </sheetData>
